--- a/results/Analysis_Sensitivity/Sens.CV5.Associations/Fold-3/06_Log.M1.Scaled.Coef.xlsx
+++ b/results/Analysis_Sensitivity/Sens.CV5.Associations/Fold-3/06_Log.M1.Scaled.Coef.xlsx
@@ -422,52 +422,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.73 (0.56, 0.97)</t>
+          <t>0.88 (0.71, 1.09)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.198</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.59 (0.44, 0.79)</t>
+          <t>0.92 (0.84, 1.01)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.58 (0.42, 0.79)</t>
+          <t>0.97 (0.93, 1.01)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.133</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.54 (0.39, 0.74)</t>
+          <t>0.87 (0.79, 0.95)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.64 (0.48, 0.85)</t>
+          <t>0.91 (0.82, 1.02)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.113</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.61 (0.45, 0.80)</t>
+          <t>0.58 (0.42, 0.78)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.65 (0.50, 0.83)</t>
+          <t>0.87 (0.80, 0.94)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -499,17 +499,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.76 (0.60, 0.95)</t>
+          <t>0.96 (0.93, 0.98)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.62 (0.48, 0.79)</t>
+          <t>0.83 (0.75, 0.90)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -519,126 +519,126 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.60 (0.45, 0.77)</t>
+          <t>0.84 (0.75, 0.93)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HF</t>
+          <t>Heart failure</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.30 (0.13, 0.59)</t>
+          <t>0.32 (0.12, 0.69)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>0.010</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75 (0.61, 0.90)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.91 (0.85, 0.96)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>0.002</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.45 (0.26, 0.73)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.58 (0.39, 0.86)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.68 (0.55, 0.83)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.71 (0.54, 0.90)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>0.008</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.29 (0.16, 0.49)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.45 (0.25, 0.76)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.005</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Myocardial Infarction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.34 (0.13, 0.73)</t>
+          <t>0.61 (0.31, 1.04)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.26 (0.11, 0.53)</t>
+          <t>0.77 (0.64, 0.91)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91 (0.85, 0.96)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>0.001</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.38 (0.21, 0.64)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.73 (0.60, 0.87)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>0.001</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.44 (0.24, 0.77)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.007</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.24 (0.09, 0.53)</t>
+          <t>0.72 (0.55, 0.89)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.006</t>
         </is>
       </c>
     </row>
@@ -650,52 +650,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.84 (0.60, 1.14)</t>
+          <t>1.02 (0.79, 1.25)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.888</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.77 (0.55, 1.05)</t>
+          <t>0.98 (0.89, 1.07)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.696</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.87 (0.65, 1.17)</t>
+          <t>0.98 (0.95, 1.02)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.365</t>
+          <t>0.396</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.78 (0.57, 1.07)</t>
+          <t>0.98 (0.89, 1.07)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.130</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.80 (0.57, 1.09)</t>
+          <t>0.98 (0.87, 1.09)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.170</t>
+          <t>0.703</t>
         </is>
       </c>
     </row>
